--- a/Results_etc/www/sampleKey.xlsx
+++ b/Results_etc/www/sampleKey.xlsx
@@ -18,12 +18,13 @@
     <sheet name="Brain_PFCRep_Padlock_withGLU_Br" r:id="rId12" sheetId="10"/>
     <sheet name="Mice_CecalPatch_Padlock" r:id="rId13" sheetId="11"/>
     <sheet name="Mice_DSS_Padlock" r:id="rId14" sheetId="12"/>
+    <sheet name="Covariate stats" r:id="rId15" sheetId="13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4269" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4369" uniqueCount="387">
   <si>
     <t>ID</t>
   </si>
@@ -1145,6 +1146,45 @@
   </si>
   <si>
     <t>Mice_DSS_Padlock</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>std.error</t>
+  </si>
+  <si>
+    <t>statistic</t>
+  </si>
+  <si>
+    <t>p.value</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>SexF</t>
+  </si>
+  <si>
+    <t>CohortPD</t>
+  </si>
+  <si>
+    <t>SexM</t>
+  </si>
+  <si>
+    <t>Batch2</t>
+  </si>
+  <si>
+    <t>Sexm</t>
+  </si>
+  <si>
+    <t>SEXM</t>
   </si>
 </sst>
 </file>
@@ -8876,6 +8916,979 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-25.961013738686013</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1674.4509487912549</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.015504194827221802</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9876299379077044</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.09714474932637002</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.03832606805975813</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.5346912491754074</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.011254647339932798</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.19852206533032185</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7084974820551793</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.28020151144991723</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7793229071306851</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.011501201505747103</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.03141031389362671</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3661600308961174</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7142456649381631</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18.720859654169814</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1674.4485429635095</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.011180313502519969</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9910795863128653</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-5.313059042566499</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.904244821549905</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.0833592603738316</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.27864899112120367</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.12276351099624508</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04714693841695561</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.603849054005493</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.009218334608479166</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.36763305299317056</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.871149475386589</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.4220091538596478</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6730183359635529</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.04251099178758938</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.036966153233990745</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.1499977159781964</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2501448120013918</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.7813606155448941</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.49661228111416417</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.5733815800766924</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.11563048954190377</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-7.448565761089331</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.1095043589243674</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-2.3954189804274537</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01660138275171918</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.09125508011258608</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.039063493076598725</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.3360706615162665</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.01948755908181653</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.24554721282283287</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7371980090107617</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.33308176340889756</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7390725648630996</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.019400992422164424</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03180908498322034</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6099198525326545</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5419149008993394</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>384</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.310044264643694</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9044117740644817</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.4485042125848</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.14747608870465317</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>380</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-9.593032877658542</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.427037983610507</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.7676369516169255</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.07712161640731165</v>
+      </c>
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.10047480928777985</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.04758285572208895</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.1115758556949613</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.03472284527493568</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>385</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3287930360620753</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.904800398529885</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.36338736874596483</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7163155361054738</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.008894485096823437</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.037084847907131936</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.2398414877983874</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8104531428674457</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2010938320902472</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6548380550626864</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3070894101763784</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7587753179878122</v>
+      </c>
+      <c r="F21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>380</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-13.087030833994408</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.487282538440605</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-2.384974847260831</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.017080289119859215</v>
+      </c>
+      <c r="F22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.13179107486173683</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.06283578962119597</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.097388696095587</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.035959180920388446</v>
+      </c>
+      <c r="F23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>386</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.704887585273424</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.4529091916335095</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.8617045035225581</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.06264475344995127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.032584078420738675</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.042304368124866286</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7702296444793351</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.44116368203349265</v>
+      </c>
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>380</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9629478206638479</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.9436741642047206</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3271244597562323</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7435737524450693</v>
+      </c>
+      <c r="F26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-3.764068273579804E-4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.029704029834331624</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.012671911166845554</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9898895483097266</v>
+      </c>
+      <c r="F27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.24062684671429851</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4870265612638739</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.4940733542126575</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.62125437522125</v>
+      </c>
+      <c r="F28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.06398641390858396</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.030560775926072457</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-2.093743105979025</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.03628287077920254</v>
+      </c>
+      <c r="F29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7509548254171563</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.605413542429151</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.28822864899865586</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7731717201493565</v>
+      </c>
+      <c r="F30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>380</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-13.087030833994408</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.487282538440605</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-2.384974847260831</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.017080289119859215</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.13179107486173683</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.06283578962119597</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.097388696095587</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.035959180920388446</v>
+      </c>
+      <c r="F32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>386</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.704887585273424</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.4529091916335095</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.8617045035225581</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.06264475344995127</v>
+      </c>
+      <c r="F33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.032584078420738675</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.042304368124866286</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.7702296444793351</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.44116368203349265</v>
+      </c>
+      <c r="F34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>380</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-10.135565473140788</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.006826226661345</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-2.5295745060514303</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.011420092454027813</v>
+      </c>
+      <c r="F35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.11278834456339049</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.04751549600359201</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.373717082841018</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.017610037951435422</v>
+      </c>
+      <c r="F36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>386</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.95509086202232</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.985594568726003</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9690504517053978</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.3325200174802747</v>
+      </c>
+      <c r="F37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0399381605575215</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.03880622088908212</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.029169026060918</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.30340025455751285</v>
+      </c>
+      <c r="F38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>380</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9629478206638479</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.9436741642047206</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.3271244597562323</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7435737524450693</v>
+      </c>
+      <c r="F39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-3.764068273579804E-4</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.029704029834331624</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.012671911166845554</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9898895483097266</v>
+      </c>
+      <c r="F40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>383</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.24062684671429851</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.4870265612638739</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.4940733542126575</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.62125437522125</v>
+      </c>
+      <c r="F41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.06398641390858396</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.030560775926072457</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-2.093743105979025</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.03628287077920254</v>
+      </c>
+      <c r="F42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7509548254171563</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.605413542429151</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.28822864899865586</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.7731717201493565</v>
+      </c>
+      <c r="F43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>380</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9629478206638479</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.9436741642047206</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.3271244597562323</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.7435737524450693</v>
+      </c>
+      <c r="F44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-3.764068273579804E-4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.029704029834331624</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.012671911166845554</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9898895483097266</v>
+      </c>
+      <c r="F45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>383</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.24062684671429851</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.4870265612638739</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.4940733542126575</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.62125437522125</v>
+      </c>
+      <c r="F46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.06398641390858396</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.030560775926072457</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-2.093743105979025</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.03628287077920254</v>
+      </c>
+      <c r="F47" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7509548254171563</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.605413542429151</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.28822864899865586</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.7731717201493565</v>
+      </c>
+      <c r="F48" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
